--- a/P4_01_Analyse.xlsx
+++ b/P4_01_Analyse.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>Catégorie</t>
   </si>
@@ -178,6 +178,21 @@
   </si>
   <si>
     <t>Décrire l'image via la balise alt= " "</t>
+  </si>
+  <si>
+    <t>SEO et accessibilité</t>
+  </si>
+  <si>
+    <t>langue non identifié dans le fichier html</t>
+  </si>
+  <si>
+    <t>Toujours indiquer la langue dans un document afin d'atteindre les personnes concerné par cette langue</t>
+  </si>
+  <si>
+    <t>langue non identifié dans le fichier html bloque le bon référencement au près des utilisateurs potentiels, le site peut être proposé auprès  d'utilisateurs non concernés</t>
+  </si>
+  <si>
+    <t>spécifier la langue en utilisant &lt;html lang="fr"&gt;</t>
   </si>
 </sst>
 </file>
@@ -487,7 +502,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -729,7 +744,23 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/P4_01_Analyse.xlsx
+++ b/P4_01_Analyse.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
   <si>
     <t>Catégorie</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Faire attention aux couleurs de charte afin qu'aucun texte ne soit cacher</t>
   </si>
   <si>
-    <t>Modifier la couleur afin de faire appraitre le texte en pretant attention à la charte de couleur</t>
-  </si>
-  <si>
     <t>Ne pas mettre de code inutile qui allourdi et peut créer des problèmes</t>
   </si>
   <si>
@@ -193,13 +190,43 @@
   </si>
   <si>
     <t>spécifier la langue en utilisant &lt;html lang="fr"&gt;</t>
+  </si>
+  <si>
+    <t>Commentaires inutile dans le fichier html</t>
+  </si>
+  <si>
+    <t>Commentaires inutile dans le fichier html prennent de la place pour rien peuvent être enlever</t>
+  </si>
+  <si>
+    <t>Ne pas mettre de commentaires inutile ou de saut de ligne quand ce n'est pas absolument nécessaire</t>
+  </si>
+  <si>
+    <t>Enlever les commentaires inutile et reprendre la présentation des lignes de code html</t>
+  </si>
+  <si>
+    <t>Lien js avant le body</t>
+  </si>
+  <si>
+    <t>Privilégié les liens js en bas du code html pour les faire charger après le code de base</t>
+  </si>
+  <si>
+    <t>Les liens js sont placés avant le body ce qui crée un temps plus long avant l'apparition de la page</t>
+  </si>
+  <si>
+    <t>Déplacer les liens js après le body</t>
+  </si>
+  <si>
+    <t>Modifier la couleur afin de faire appraitre le texte en pretant attention à la charte de couleur et au ratio</t>
+  </si>
+  <si>
+    <t>ligne 102 code inconnu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -230,8 +257,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +283,16 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -261,10 +312,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -287,9 +340,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Neutre" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -502,16 +563,16 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="46.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="39.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.44140625" style="6" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" style="1" customWidth="1"/>
     <col min="7" max="26" width="10.5546875" style="1" customWidth="1"/>
     <col min="27" max="16384" width="11.33203125" style="1"/>
@@ -573,6 +634,7 @@
       <c r="E2" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -641,6 +703,7 @@
       <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -658,8 +721,9 @@
       <c r="E7" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -707,7 +771,7 @@
         <v>42</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="45" x14ac:dyDescent="0.2">
@@ -715,54 +779,91 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:26" ht="75" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="60" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="E13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/P4_01_Analyse.xlsx
+++ b/P4_01_Analyse.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>Catégorie</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Accessibilité</t>
   </si>
   <si>
-    <t>Du texte de la page d'acceuil n'est pas responsive il faut le modifier pour le mobile first de google</t>
-  </si>
-  <si>
     <t>utilisation d'une balise meta dans le head pour les mots clés</t>
   </si>
   <si>
@@ -87,18 +84,12 @@
     <t>Mettre dans la balise title un nom de page cohérent. Pas de page 1, 2 etc</t>
   </si>
   <si>
-    <t>Privilégié la version mobile car google index en mobile first</t>
-  </si>
-  <si>
     <t>Rendre les navbar identiques afin d'éviter les doublons de code</t>
   </si>
   <si>
     <t>codé les navbar des pages de manière identique</t>
   </si>
   <si>
-    <t>Rendre tout les éléments de la page responsive de manière à être lisible et cohérent en version mobile</t>
-  </si>
-  <si>
     <t>effacer le texte</t>
   </si>
   <si>
@@ -108,9 +99,6 @@
     <t xml:space="preserve">Le texte de mots-clés de la même couleur que le background du footer </t>
   </si>
   <si>
-    <t>Le texte de la page d'acceuil n'est pas responsive</t>
-  </si>
-  <si>
     <t>La navbar sur la page contact (page 2) à refaire, doit être identique à la page acceuil</t>
   </si>
   <si>
@@ -220,13 +208,19 @@
   </si>
   <si>
     <t>ligne 102 code inconnu</t>
+  </si>
+  <si>
+    <t>ratio ?</t>
+  </si>
+  <si>
+    <t>utile ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -271,8 +265,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,8 +304,18 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -311,13 +330,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -346,8 +382,16 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Calcul" xfId="4" builtinId="22"/>
+    <cellStyle name="Insatisfaisant" xfId="3" builtinId="27"/>
     <cellStyle name="Neutre" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
@@ -560,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -574,7 +618,8 @@
     <col min="4" max="4" width="33.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="31.44140625" style="6" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" style="1" customWidth="1"/>
-    <col min="7" max="26" width="10.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="1" customWidth="1"/>
+    <col min="8" max="26" width="10.5546875" style="1" customWidth="1"/>
     <col min="27" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
@@ -623,16 +668,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G2" s="8"/>
     </row>
@@ -641,97 +686,100 @@
         <v>9</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>23</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:26" ht="60" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:26" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="45" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>33</v>
@@ -739,142 +787,134 @@
       <c r="E8" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="G8" s="11" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>38</v>
+        <v>60</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="60" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:26" ht="75" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="7" t="s">
+    <row r="12" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="E12" s="6" t="s">
-        <v>49</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="9" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:26" ht="45" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1852,7 +1892,6 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/P4_01_Analyse.xlsx
+++ b/P4_01_Analyse.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>Catégorie</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Référence</t>
   </si>
   <si>
-    <t>(SEO ou accessiblité ?)</t>
-  </si>
-  <si>
     <t>SEO</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>effacer le texte</t>
   </si>
   <si>
-    <t>Les mots-clés de la balise meta ne correspondent pas à l'entreprise</t>
-  </si>
-  <si>
     <t xml:space="preserve">Le texte de mots-clés de la même couleur que le background du footer </t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t>effacer la div car une balise meta existe déjà dans le head</t>
   </si>
   <si>
-    <t>Les mots-clés de la balise meta</t>
-  </si>
-  <si>
     <t>Faire un audit afin de réfléchir au mots-clés lié à l'entreprise et vérifié les recherches de ces mots sur google</t>
   </si>
   <si>
@@ -129,9 +120,6 @@
     <t>codé les footer des pages de manière identique</t>
   </si>
   <si>
-    <t>SEO ou acces ?</t>
-  </si>
-  <si>
     <t>Texte non visible sur la page contact (page 2)</t>
   </si>
   <si>
@@ -144,9 +132,6 @@
     <t>Ne pas mettre de code inutile qui allourdi et peut créer des problèmes</t>
   </si>
   <si>
-    <t>une balise &lt;li&gt; en trop dans la navbar qui peut créer des problèmes dans l'accèssibilité et allourdi le code pour rien</t>
-  </si>
-  <si>
     <t>effacer la balise &lt;li&gt; inutile</t>
   </si>
   <si>
@@ -207,20 +192,77 @@
     <t>Modifier la couleur afin de faire appraitre le texte en pretant attention à la charte de couleur et au ratio</t>
   </si>
   <si>
-    <t>ligne 102 code inconnu</t>
-  </si>
-  <si>
-    <t>ratio ?</t>
-  </si>
-  <si>
-    <t>utile ?</t>
+    <t>SEO ou accessibilité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mailto page contact </t>
+  </si>
+  <si>
+    <t>La meta description n'est pas rempli</t>
+  </si>
+  <si>
+    <t>une balise &lt;li&gt; en trop dans la navbar qui peut créer des problèmes dans l'accessibilité et allourdi le code pour rien</t>
+  </si>
+  <si>
+    <t>Adresse mail sans lien mailto</t>
+  </si>
+  <si>
+    <t>ajouter une balise mailto aux adresse mail afin d'augmenter l'accessibilité</t>
+  </si>
+  <si>
+    <t>ajouter une balise mailto aux adresse mail</t>
+  </si>
+  <si>
+    <t>La meta description n'est pas rempli cela freine le bon reférencement du site</t>
+  </si>
+  <si>
+    <t>Faire une description de l'entreprise et l'ajouter dans la meta description</t>
+  </si>
+  <si>
+    <t>Remplir la meta description</t>
+  </si>
+  <si>
+    <t>https://agencethrive.fr/balises-meta-les-bonnes-pratiques-seo/</t>
+  </si>
+  <si>
+    <t>Les mots-clés de la balise meta keyword</t>
+  </si>
+  <si>
+    <t>Les mots-clés de la balise meta keyword ne correspondent pas à l'entreprise</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/search/docs/advanced/guidelines/hidden-text-links</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/search/docs/advanced/guidelines/irrelevant-keywords</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/search/docs/advanced/guidelines/google-images</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/International/questions/qa-html-language-declarations.fr</t>
+  </si>
+  <si>
+    <t>https://www.e-monsite.com/pages/tutoriels/configuration-avancee-du-site/comment-faire-un-lien-mailto.html</t>
+  </si>
+  <si>
+    <t>https://www.alsacreations.com/astuce/lire/80-Comment-integrer-du-code-JavaScript-dans-une-page-.html</t>
+  </si>
+  <si>
+    <t>https://www.sitew.com/Comment-designer-un-site-web/Comment-creer-footer-efficace</t>
+  </si>
+  <si>
+    <t>https://www.seo-reference.net/optimisation/texte-cache.html</t>
+  </si>
+  <si>
+    <t>https://www.aliasdmc.fr/wai/accessibilite131.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -251,37 +293,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,28 +307,8 @@
         <bgColor rgb="FF7030A0"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -330,30 +323,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -376,25 +350,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Calcul" xfId="4" builtinId="22"/>
-    <cellStyle name="Insatisfaisant" xfId="3" builtinId="27"/>
-    <cellStyle name="Neutre" xfId="2" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -607,7 +566,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -618,7 +577,7 @@
     <col min="4" max="4" width="33.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="31.44140625" style="6" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="8" customWidth="1"/>
     <col min="8" max="26" width="10.5546875" style="1" customWidth="1"/>
     <col min="27" max="16384" width="11.33203125" style="1"/>
   </cols>
@@ -642,7 +601,6 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -663,256 +621,303 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="F6" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" ht="45" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="8"/>
+    <row r="7" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:26" ht="45" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="7" t="s">
+    <row r="8" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:26" ht="30" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>63</v>
+      <c r="F8" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="8"/>
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="60" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="60" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="9" t="s">
+      <c r="F14" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="E15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" ht="45" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="2" t="s">
+    <row r="16" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="10"/>
+      <c r="C16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="A21" s="5"/>
     </row>
     <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/P4_01_Analyse.xlsx
+++ b/P4_01_Analyse.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
   <si>
     <t>Catégorie</t>
   </si>
@@ -153,15 +153,9 @@
     <t>SEO et accessibilité</t>
   </si>
   <si>
-    <t>langue non identifié dans le fichier html</t>
-  </si>
-  <si>
     <t>Toujours indiquer la langue dans un document afin d'atteindre les personnes concerné par cette langue</t>
   </si>
   <si>
-    <t>langue non identifié dans le fichier html bloque le bon référencement au près des utilisateurs potentiels, le site peut être proposé auprès  d'utilisateurs non concernés</t>
-  </si>
-  <si>
     <t>spécifier la langue en utilisant &lt;html lang="fr"&gt;</t>
   </si>
   <si>
@@ -195,9 +189,6 @@
     <t>SEO ou accessibilité</t>
   </si>
   <si>
-    <t xml:space="preserve">mailto page contact </t>
-  </si>
-  <si>
     <t>La meta description n'est pas rempli</t>
   </si>
   <si>
@@ -256,6 +247,30 @@
   </si>
   <si>
     <t>https://www.aliasdmc.fr/wai/accessibilite131.html</t>
+  </si>
+  <si>
+    <t>les input form ne sont pas dans les labels</t>
+  </si>
+  <si>
+    <t>https://web.dev/label/?utm_source=lighthouse&amp;utm_medium=lr</t>
+  </si>
+  <si>
+    <t>Les input form ne sont pas dans les labels cela empêche les technologies d'assistance de naviguer dans les formulaires</t>
+  </si>
+  <si>
+    <t>La langue n'est pas identifiée dans le fichier html, cela bloque le bon référencement au près des utilisateurs potentiels, le site peut être proposé auprès  d'utilisateurs non concernés</t>
+  </si>
+  <si>
+    <t>La langue n'est pas identifiée dans le fichier html</t>
+  </si>
+  <si>
+    <t>L'adresse mail sur la page contact n'utilise pas mailto</t>
+  </si>
+  <si>
+    <t>Mettre les input dans les labels</t>
+  </si>
+  <si>
+    <t>Il faut mettre les input dans les labels ou utiliser l'attribut "for" dans les balises label</t>
   </si>
 </sst>
 </file>
@@ -565,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -638,7 +653,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.2">
@@ -658,7 +673,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="60" x14ac:dyDescent="0.2">
@@ -678,7 +693,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.2">
@@ -698,7 +713,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="60" x14ac:dyDescent="0.2">
@@ -718,7 +733,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="60" x14ac:dyDescent="0.2">
@@ -726,10 +741,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>26</v>
@@ -738,7 +753,7 @@
         <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="60" x14ac:dyDescent="0.2">
@@ -758,12 +773,12 @@
         <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>32</v>
@@ -775,7 +790,7 @@
         <v>34</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="45" x14ac:dyDescent="0.2">
@@ -786,7 +801,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>35</v>
@@ -812,7 +827,7 @@
         <v>40</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="60" x14ac:dyDescent="0.2">
@@ -820,19 +835,19 @@
         <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="45" x14ac:dyDescent="0.2">
@@ -840,16 +855,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="E13" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="75" x14ac:dyDescent="0.2">
@@ -857,19 +872,19 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="75" x14ac:dyDescent="0.2">
@@ -877,19 +892,19 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="45" x14ac:dyDescent="0.2">
@@ -897,39 +912,58 @@
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>66</v>
-      </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
     </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
